--- a/compilado.xlsx
+++ b/compilado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiguelSantos\Desktop\Fiebre_amarilla\MIV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiguelSantos\Desktop\Fiebre_amarilla\Lab (Ricardo)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B501569F-0AE0-4403-9133-D23C2BDE02D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39975B43-CB9B-45BE-9A81-DD8E936D2AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{317C7E1D-825C-4FF7-AB4C-DAD18D60C635}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{317C7E1D-825C-4FF7-AB4C-DAD18D60C635}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="163">
   <si>
     <t>Municipio</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipio </t>
   </si>
   <si>
     <t>Vereda y/o Centro poblado</t>
@@ -1343,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4BCBB8-80B7-4C81-B583-6D4A06C190FA}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1407,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1">
@@ -1427,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1450,10 +1447,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1473,10 +1470,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1496,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1519,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1734,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5">
@@ -1754,16 +1751,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="13">
         <v>400</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1774,16 +1771,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="13">
         <v>30</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1794,16 +1791,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="13">
         <v>31</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1814,16 +1811,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="13">
         <v>172</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1834,16 +1831,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="13">
         <v>66</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1854,16 +1851,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13">
         <v>20</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1874,16 +1871,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="13">
         <v>48</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5">
@@ -1891,19 +1888,19 @@
         <v>45693</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="13">
         <v>143</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5">
@@ -1914,16 +1911,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="13">
         <v>400</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5">
@@ -1934,16 +1931,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="13">
         <v>400</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1951,19 +1948,19 @@
         <v>45729</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="13">
         <v>83</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1971,19 +1968,19 @@
         <v>45729</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="13">
         <v>23</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1994,16 +1991,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="13">
         <v>75</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2014,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="13">
         <v>53</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2036,7 +2033,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2052,13 +2049,13 @@
         <v>20</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57">
@@ -2069,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2083,10 +2080,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" customHeight="1">
@@ -2097,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" customHeight="1">
@@ -2111,10 +2108,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2127,7 +2124,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2146,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
@@ -2160,10 +2157,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -2171,13 +2168,13 @@
         <v>45625</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
@@ -2185,13 +2182,13 @@
         <v>45626</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
@@ -2199,13 +2196,13 @@
         <v>45628</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
@@ -2213,13 +2210,13 @@
         <v>45627</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
@@ -2227,13 +2224,13 @@
         <v>45629</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
@@ -2241,13 +2238,13 @@
         <v>45643</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
@@ -2255,13 +2252,13 @@
         <v>45643</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
@@ -2269,13 +2266,13 @@
         <v>45643</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
@@ -2283,13 +2280,13 @@
         <v>45642</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
@@ -2297,13 +2294,13 @@
         <v>45642</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2316,7 +2313,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2331,13 +2328,13 @@
         <v>20</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="56" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
@@ -2348,10 +2345,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45">
@@ -2359,13 +2356,13 @@
         <v>45602</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
@@ -2376,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45">
@@ -2390,10 +2387,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45">
@@ -2401,13 +2398,13 @@
         <v>45604</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
@@ -2415,13 +2412,13 @@
         <v>45605</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="D7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
@@ -2429,13 +2426,13 @@
         <v>45609</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>101</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60">
@@ -2443,13 +2440,13 @@
         <v>45610</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>103</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60">
@@ -2457,13 +2454,13 @@
         <v>45610</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45">
@@ -2471,13 +2468,13 @@
         <v>45624</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
@@ -2488,10 +2485,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45">
@@ -2502,10 +2499,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
@@ -2516,10 +2513,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45">
@@ -2530,10 +2527,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
@@ -2544,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
@@ -2558,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
@@ -2572,10 +2569,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
@@ -2586,10 +2583,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -2600,10 +2597,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75">
@@ -2614,10 +2611,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
@@ -2625,13 +2622,13 @@
         <v>45677</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="D22" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
@@ -2639,13 +2636,13 @@
         <v>45687</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2657,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61E5C7C-61BC-41FB-87AE-261CC393CAA3}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2688,52 +2685,52 @@
         <v>0</v>
       </c>
       <c r="C1" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="M1" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="N1" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="O1" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="P1" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="Q1" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="57" t="s">
-        <v>127</v>
-      </c>
       <c r="R1" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="114">
@@ -2744,10 +2741,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="6">
         <f>9+7</f>
@@ -2768,31 +2765,31 @@
         <v>0.1875</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K2" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="33" t="s">
         <v>130</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="57">
@@ -2800,13 +2797,13 @@
         <v>45602</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="6">
         <v>32</v>
@@ -2826,31 +2823,31 @@
         <v>0.29850746268656714</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K3" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="33" t="s">
         <v>133</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="57">
@@ -2861,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="6">
         <v>7</v>
@@ -2884,31 +2881,31 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="33" t="s">
         <v>135</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="57">
@@ -2919,10 +2916,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="6">
         <v>5</v>
@@ -2942,31 +2939,31 @@
         <v>0</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="99.75">
@@ -2974,13 +2971,13 @@
         <v>45604</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="E6" s="6">
         <v>48</v>
@@ -3000,31 +2997,31 @@
         <v>0.38961038961038963</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="L6" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" s="33" t="s">
         <v>141</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="42.75">
@@ -3032,13 +3029,13 @@
         <v>45605</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>99</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="6">
         <v>40</v>
@@ -3058,31 +3055,31 @@
         <v>0.5617977528089888</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="42.75">
@@ -3090,13 +3087,13 @@
         <v>45609</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>101</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="6">
         <v>34</v>
@@ -3115,31 +3112,31 @@
         <v>0.33980582524271846</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" s="33" t="s">
         <v>144</v>
-      </c>
-      <c r="R8" s="33" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="42.75">
@@ -3147,13 +3144,13 @@
         <v>45610</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="E9" s="6">
         <v>153</v>
@@ -3173,28 +3170,28 @@
         <v>0.17241379310344829</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R9" s="33"/>
     </row>
@@ -3203,13 +3200,13 @@
         <v>45610</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="35">
         <v>0</v>
@@ -3233,25 +3230,25 @@
         <v>0</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O10" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="33"/>
     </row>
@@ -3260,13 +3257,13 @@
         <v>45624</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="42">
         <v>32</v>
@@ -3285,28 +3282,28 @@
         <v>0.59701492537313428</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O11" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="48"/>
     </row>
@@ -3318,10 +3315,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="42">
         <v>3</v>
@@ -3340,28 +3337,28 @@
         <v>0.625</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N12" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O12" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P12" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="48"/>
     </row>
@@ -3373,10 +3370,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="42">
         <v>2</v>
@@ -3395,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N13" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="O13" s="50" t="s">
-        <v>152</v>
-      </c>
       <c r="P13" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R13" s="48"/>
     </row>
@@ -3428,10 +3425,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="52">
         <v>4</v>
@@ -3450,28 +3447,28 @@
         <v>0.75</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M14" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O14" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P14" s="55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="33"/>
     </row>
@@ -3483,10 +3480,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="6">
         <v>9</v>
@@ -3505,31 +3502,31 @@
         <v>0</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O15" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="57">
@@ -3540,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
@@ -3562,31 +3559,31 @@
         <v>1</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O16" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="42.75">
@@ -3597,10 +3594,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="6">
         <v>2</v>
@@ -3618,28 +3615,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K17" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O17" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="33"/>
     </row>
@@ -3651,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="6">
         <v>2</v>
@@ -3673,31 +3670,31 @@
         <v>1</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R18" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R18" s="33" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="42.75">
@@ -3708,10 +3705,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="6">
         <v>9</v>
@@ -3730,31 +3727,31 @@
         <v>0</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M19" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O19" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="71.25">
@@ -3765,10 +3762,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20" s="42">
         <v>3</v>
@@ -3787,31 +3784,31 @@
         <v>0.625</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N20" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O20" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P20" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R20" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="45">
@@ -3822,16 +3819,16 @@
         <v>9</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" s="2">
         <v>18</v>
@@ -3844,31 +3841,31 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L21" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O21" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P21" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="30">
@@ -3876,42 +3873,42 @@
         <v>45677</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -3922,13 +3919,13 @@
         <v>45677</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3938,13 +3935,13 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="1"/>
@@ -3956,7 +3953,7 @@
         <v>45677</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
@@ -3980,13 +3977,13 @@
         <v>45687</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
